--- a/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-and-nested-multiple-loops.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-and-nested-multiple-loops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49351643-8902-B844-B2B1-5E960816B2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECCD709-202E-6B4A-B9A1-AB2C83ABD471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="2720" windowWidth="28040" windowHeight="17440" xr2:uid="{36000CE5-9E55-594C-992C-4D41C559D066}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="18440" xr2:uid="{36000CE5-9E55-594C-992C-4D41C559D066}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>{{#each categories}}{{name}}</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>{{#each stars}}{{value}} - {{time}}</t>
+  </si>
+  <si>
+    <t>{{#each cells=collaborators}}{{this}}{{/each}}</t>
+  </si>
+  <si>
+    <t>Collaborators:</t>
   </si>
 </sst>
 </file>
@@ -128,10 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C66BD-901A-6C43-965D-E14AA4AD2D18}">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,104 +482,114 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
     </row>
